--- a/3_data_analysis/5_clustring/1_all_samples/cluster_8/cluster8.xlsx
+++ b/3_data_analysis/5_clustring/1_all_samples/cluster_8/cluster8.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
     <t xml:space="preserve">variable_id</t>
   </si>
@@ -23,1561 +23,1123 @@
     <t xml:space="preserve">cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8472</t>
+    <t xml:space="preserve">protein_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8469</t>
   </si>
 </sst>
 </file>
@@ -1625,8 +1187,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C520" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C520"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C374" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C374"/>
   <tableColumns count="3">
     <tableColumn id="1" name="variable_id"/>
     <tableColumn id="2" name="membership"/>
@@ -1937,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.998569052586436</v>
+        <v>0.979063038940841</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
@@ -1948,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.827350876134772</v>
+        <v>0.995308746073395</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
@@ -1959,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.996442393867655</v>
+        <v>0.990090758828273</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
@@ -1970,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.99999522743268</v>
+        <v>0.894282909016691</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
@@ -1981,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.992375581485025</v>
+        <v>0.886547796321864</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
@@ -1992,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.999999980577005</v>
+        <v>0.813598748140956</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
@@ -2003,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.999998418480282</v>
+        <v>0.967740893118559</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
@@ -2014,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.527552314275739</v>
+        <v>0.930296088186428</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
@@ -2025,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.994403341430416</v>
       </c>
       <c r="C10" t="n">
         <v>8</v>
@@ -2036,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.99999999998766</v>
+        <v>0.8914662337508</v>
       </c>
       <c r="C11" t="n">
         <v>8</v>
@@ -2047,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.999999995987805</v>
+        <v>0.998393297284965</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -2058,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.999999999999966</v>
+        <v>0.996034169054002</v>
       </c>
       <c r="C13" t="n">
         <v>8</v>
@@ -2069,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.999334023704429</v>
+        <v>0.90019475760934</v>
       </c>
       <c r="C14" t="n">
         <v>8</v>
@@ -2080,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.912637416068741</v>
+        <v>0.996533523406084</v>
       </c>
       <c r="C15" t="n">
         <v>8</v>
@@ -2091,7 +1653,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0.999691454747965</v>
+        <v>0.984567150215827</v>
       </c>
       <c r="C16" t="n">
         <v>8</v>
@@ -2102,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0.999999999940887</v>
+        <v>0.969490306977179</v>
       </c>
       <c r="C17" t="n">
         <v>8</v>
@@ -2113,7 +1675,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0.995996298424576</v>
+        <v>0.978167689448681</v>
       </c>
       <c r="C18" t="n">
         <v>8</v>
@@ -2124,7 +1686,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0.99998294839901</v>
+        <v>0.928811566655631</v>
       </c>
       <c r="C19" t="n">
         <v>8</v>
@@ -2135,7 +1697,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0.957879361238882</v>
+        <v>0.906673492012803</v>
       </c>
       <c r="C20" t="n">
         <v>8</v>
@@ -2146,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.978250286835188</v>
       </c>
       <c r="C21" t="n">
         <v>8</v>
@@ -2157,7 +1719,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0.998625519710103</v>
+        <v>0.999889963186537</v>
       </c>
       <c r="C22" t="n">
         <v>8</v>
@@ -2168,7 +1730,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0.979618102661611</v>
+        <v>0.99765286367672</v>
       </c>
       <c r="C23" t="n">
         <v>8</v>
@@ -2179,7 +1741,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>0.989896690956372</v>
+        <v>0.893594877053152</v>
       </c>
       <c r="C24" t="n">
         <v>8</v>
@@ -2190,7 +1752,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>0.999900716874697</v>
+        <v>0.94449872604959</v>
       </c>
       <c r="C25" t="n">
         <v>8</v>
@@ -2201,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0.999842882699161</v>
+        <v>0.955676246563263</v>
       </c>
       <c r="C26" t="n">
         <v>8</v>
@@ -2212,7 +1774,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0.999999999991167</v>
+        <v>0.999885154214263</v>
       </c>
       <c r="C27" t="n">
         <v>8</v>
@@ -2223,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0.999722571816494</v>
+        <v>0.986868518257098</v>
       </c>
       <c r="C28" t="n">
         <v>8</v>
@@ -2234,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0.999999999998122</v>
+        <v>0.998911683784659</v>
       </c>
       <c r="C29" t="n">
         <v>8</v>
@@ -2245,7 +1807,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0.999999999925391</v>
+        <v>0.999907806203353</v>
       </c>
       <c r="C30" t="n">
         <v>8</v>
@@ -2256,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>0.999971753123451</v>
+        <v>0.962234370198522</v>
       </c>
       <c r="C31" t="n">
         <v>8</v>
@@ -2267,7 +1829,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0.999833576078464</v>
       </c>
       <c r="C32" t="n">
         <v>8</v>
@@ -2278,7 +1840,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>0.979835016756381</v>
+        <v>0.993509333621054</v>
       </c>
       <c r="C33" t="n">
         <v>8</v>
@@ -2289,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>0.999673220418676</v>
+        <v>0.956887535315935</v>
       </c>
       <c r="C34" t="n">
         <v>8</v>
@@ -2300,7 +1862,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>0.999999999999998</v>
+        <v>0.987236117047411</v>
       </c>
       <c r="C35" t="n">
         <v>8</v>
@@ -2311,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.871695832818722</v>
       </c>
       <c r="C36" t="n">
         <v>8</v>
@@ -2322,7 +1884,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>0.830534412896032</v>
+        <v>0.984854042222322</v>
       </c>
       <c r="C37" t="n">
         <v>8</v>
@@ -2333,7 +1895,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.876258264424104</v>
       </c>
       <c r="C38" t="n">
         <v>8</v>
@@ -2344,7 +1906,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>0.999999999999365</v>
+        <v>0.844191853019432</v>
       </c>
       <c r="C39" t="n">
         <v>8</v>
@@ -2355,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>0.657115749452479</v>
+        <v>0.997917011547671</v>
       </c>
       <c r="C40" t="n">
         <v>8</v>
@@ -2366,7 +1928,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0.99757557014608</v>
       </c>
       <c r="C41" t="n">
         <v>8</v>
@@ -2377,7 +1939,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>0.999999997949758</v>
+        <v>0.982266429115506</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
@@ -2388,7 +1950,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>0.984404485782357</v>
+        <v>0.98582766623251</v>
       </c>
       <c r="C43" t="n">
         <v>8</v>
@@ -2399,7 +1961,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>0.997003810382623</v>
+        <v>0.912284817707755</v>
       </c>
       <c r="C44" t="n">
         <v>8</v>
@@ -2410,7 +1972,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>0.999999999875818</v>
+        <v>0.917812010869023</v>
       </c>
       <c r="C45" t="n">
         <v>8</v>
@@ -2421,7 +1983,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0.999967734873813</v>
+        <v>0.903201597276978</v>
       </c>
       <c r="C46" t="n">
         <v>8</v>
@@ -2432,7 +1994,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>0.999264963583635</v>
+        <v>0.963279282857527</v>
       </c>
       <c r="C47" t="n">
         <v>8</v>
@@ -2443,7 +2005,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>0.999999999996837</v>
+        <v>0.998935860110329</v>
       </c>
       <c r="C48" t="n">
         <v>8</v>
@@ -2454,7 +2016,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>0.999999671994562</v>
+        <v>0.803012783148263</v>
       </c>
       <c r="C49" t="n">
         <v>8</v>
@@ -2465,7 +2027,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>0.999993044219251</v>
+        <v>0.976641398177618</v>
       </c>
       <c r="C50" t="n">
         <v>8</v>
@@ -2476,7 +2038,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>0.965250679220834</v>
+        <v>0.993439873933261</v>
       </c>
       <c r="C51" t="n">
         <v>8</v>
@@ -2487,7 +2049,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>0.999999972257255</v>
+        <v>0.901474063036173</v>
       </c>
       <c r="C52" t="n">
         <v>8</v>
@@ -2498,7 +2060,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>0.999994017431527</v>
+        <v>0.988431966967958</v>
       </c>
       <c r="C53" t="n">
         <v>8</v>
@@ -2509,7 +2071,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>0.999999857067287</v>
+        <v>0.943124140143761</v>
       </c>
       <c r="C54" t="n">
         <v>8</v>
@@ -2520,7 +2082,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>0.999306273264577</v>
+        <v>0.999889168180055</v>
       </c>
       <c r="C55" t="n">
         <v>8</v>
@@ -2531,7 +2093,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>0.999995907638515</v>
+        <v>0.981580372850592</v>
       </c>
       <c r="C56" t="n">
         <v>8</v>
@@ -2542,7 +2104,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>0.659158069120788</v>
+        <v>0.850114540311145</v>
       </c>
       <c r="C57" t="n">
         <v>8</v>
@@ -2553,7 +2115,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>0.986003765676959</v>
+        <v>0.84112237939897</v>
       </c>
       <c r="C58" t="n">
         <v>8</v>
@@ -2564,7 +2126,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>0.999999895013937</v>
+        <v>0.999054632128828</v>
       </c>
       <c r="C59" t="n">
         <v>8</v>
@@ -2575,7 +2137,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0.976123192999687</v>
       </c>
       <c r="C60" t="n">
         <v>8</v>
@@ -2586,7 +2148,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>0.99982923695644</v>
+        <v>0.950262967318205</v>
       </c>
       <c r="C61" t="n">
         <v>8</v>
@@ -2597,7 +2159,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>0.872098193620845</v>
+        <v>0.976400950414621</v>
       </c>
       <c r="C62" t="n">
         <v>8</v>
@@ -2608,7 +2170,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9998610756543</v>
+        <v>0.852121527937211</v>
       </c>
       <c r="C63" t="n">
         <v>8</v>
@@ -2619,7 +2181,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>0.999999999999724</v>
+        <v>0.900891041182018</v>
       </c>
       <c r="C64" t="n">
         <v>8</v>
@@ -2630,7 +2192,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>0.732502368200934</v>
+        <v>0.993756806546011</v>
       </c>
       <c r="C65" t="n">
         <v>8</v>
@@ -2641,7 +2203,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0.993271778174011</v>
       </c>
       <c r="C66" t="n">
         <v>8</v>
@@ -2652,7 +2214,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>0.999884619730321</v>
+        <v>0.9953656544966</v>
       </c>
       <c r="C67" t="n">
         <v>8</v>
@@ -2663,7 +2225,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0.919529215645218</v>
       </c>
       <c r="C68" t="n">
         <v>8</v>
@@ -2674,7 +2236,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>0.999999999999572</v>
+        <v>0.972933244951705</v>
       </c>
       <c r="C69" t="n">
         <v>8</v>
@@ -2685,7 +2247,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>0.994691833958183</v>
+        <v>0.980742189085857</v>
       </c>
       <c r="C70" t="n">
         <v>8</v>
@@ -2696,7 +2258,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>0.972585276973797</v>
+        <v>0.868772012647671</v>
       </c>
       <c r="C71" t="n">
         <v>8</v>
@@ -2707,7 +2269,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>0.999808821976192</v>
+        <v>0.99267140207554</v>
       </c>
       <c r="C72" t="n">
         <v>8</v>
@@ -2718,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>0.999977704213401</v>
+        <v>0.950214489313086</v>
       </c>
       <c r="C73" t="n">
         <v>8</v>
@@ -2729,7 +2291,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>0.999239367895604</v>
+        <v>0.949607092705008</v>
       </c>
       <c r="C74" t="n">
         <v>8</v>
@@ -2740,7 +2302,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="n">
-        <v>0.999999999898606</v>
+        <v>0.9996331506791</v>
       </c>
       <c r="C75" t="n">
         <v>8</v>
@@ -2751,7 +2313,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>0.999999665555174</v>
+        <v>0.946201788496552</v>
       </c>
       <c r="C76" t="n">
         <v>8</v>
@@ -2762,7 +2324,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>0.999928674972168</v>
+        <v>0.999678695243776</v>
       </c>
       <c r="C77" t="n">
         <v>8</v>
@@ -2773,7 +2335,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="n">
-        <v>0.99712916843698</v>
+        <v>0.991773481839317</v>
       </c>
       <c r="C78" t="n">
         <v>8</v>
@@ -2784,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7934364912478</v>
+        <v>0.987079191214661</v>
       </c>
       <c r="C79" t="n">
         <v>8</v>
@@ -2795,7 +2357,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>0.60350395509854</v>
+        <v>0.918236527745034</v>
       </c>
       <c r="C80" t="n">
         <v>8</v>
@@ -2806,7 +2368,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>0.998541775437314</v>
+        <v>0.990155042540945</v>
       </c>
       <c r="C81" t="n">
         <v>8</v>
@@ -2817,7 +2379,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>0.999987302991388</v>
+        <v>0.999157313022359</v>
       </c>
       <c r="C82" t="n">
         <v>8</v>
@@ -2828,7 +2390,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>0.99999999999862</v>
+        <v>0.806215557371401</v>
       </c>
       <c r="C83" t="n">
         <v>8</v>
@@ -2839,7 +2401,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>0.999999987638822</v>
+        <v>0.92938285455528</v>
       </c>
       <c r="C84" t="n">
         <v>8</v>
@@ -2850,7 +2412,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>0.99999937970993</v>
+        <v>0.93454912480932</v>
       </c>
       <c r="C85" t="n">
         <v>8</v>
@@ -2861,7 +2423,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>0.999989611686517</v>
+        <v>0.898033262722903</v>
       </c>
       <c r="C86" t="n">
         <v>8</v>
@@ -2872,7 +2434,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>0.999997360590004</v>
+        <v>0.998461854741365</v>
       </c>
       <c r="C87" t="n">
         <v>8</v>
@@ -2883,7 +2445,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0.999936020494597</v>
       </c>
       <c r="C88" t="n">
         <v>8</v>
@@ -2894,7 +2456,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>0.993847150918544</v>
+        <v>0.960201533306923</v>
       </c>
       <c r="C89" t="n">
         <v>8</v>
@@ -2905,7 +2467,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>0.999990351065267</v>
+        <v>0.984324217395368</v>
       </c>
       <c r="C90" t="n">
         <v>8</v>
@@ -2916,7 +2478,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>0.999999902438112</v>
+        <v>0.997706378882101</v>
       </c>
       <c r="C91" t="n">
         <v>8</v>
@@ -2927,7 +2489,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>0.999999999999992</v>
+        <v>0.966924437933167</v>
       </c>
       <c r="C92" t="n">
         <v>8</v>
@@ -2938,7 +2500,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>0.999999999999999</v>
+        <v>0.956951522468896</v>
       </c>
       <c r="C93" t="n">
         <v>8</v>
@@ -2949,7 +2511,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>0.999999296625251</v>
+        <v>0.999139300358094</v>
       </c>
       <c r="C94" t="n">
         <v>8</v>
@@ -2960,7 +2522,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>0.844581005032412</v>
+        <v>0.802518154953612</v>
       </c>
       <c r="C95" t="n">
         <v>8</v>
@@ -2971,7 +2533,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>0.999999999999971</v>
+        <v>0.999946996043649</v>
       </c>
       <c r="C96" t="n">
         <v>8</v>
@@ -2982,7 +2544,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>0.999983001735313</v>
+        <v>0.878932010655371</v>
       </c>
       <c r="C97" t="n">
         <v>8</v>
@@ -2993,7 +2555,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>0.999999938981978</v>
+        <v>0.97872375849695</v>
       </c>
       <c r="C98" t="n">
         <v>8</v>
@@ -3004,7 +2566,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>0.989780342924433</v>
+        <v>0.985105014170637</v>
       </c>
       <c r="C99" t="n">
         <v>8</v>
@@ -3015,7 +2577,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0.965337285189133</v>
       </c>
       <c r="C100" t="n">
         <v>8</v>
@@ -3026,7 +2588,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>0.946612081057755</v>
+        <v>0.975386687682722</v>
       </c>
       <c r="C101" t="n">
         <v>8</v>
@@ -3037,7 +2599,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>0.999999999999866</v>
+        <v>0.927725035324577</v>
       </c>
       <c r="C102" t="n">
         <v>8</v>
@@ -3048,7 +2610,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>0.999994701913504</v>
+        <v>0.964917556587239</v>
       </c>
       <c r="C103" t="n">
         <v>8</v>
@@ -3059,7 +2621,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>0.999999999999284</v>
+        <v>0.878685456627986</v>
       </c>
       <c r="C104" t="n">
         <v>8</v>
@@ -3070,7 +2632,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>0.999982222474833</v>
+        <v>0.999861231067346</v>
       </c>
       <c r="C105" t="n">
         <v>8</v>
@@ -3081,7 +2643,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0.994599877339522</v>
       </c>
       <c r="C106" t="n">
         <v>8</v>
@@ -3092,7 +2654,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>0.625456719017128</v>
+        <v>0.949536115710092</v>
       </c>
       <c r="C107" t="n">
         <v>8</v>
@@ -3103,7 +2665,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>0.99929091563329</v>
+        <v>0.823863493206881</v>
       </c>
       <c r="C108" t="n">
         <v>8</v>
@@ -3114,7 +2676,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>0.985199657406217</v>
+        <v>0.989368914078816</v>
       </c>
       <c r="C109" t="n">
         <v>8</v>
@@ -3125,7 +2687,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>0.999563949402019</v>
+        <v>0.882175153727693</v>
       </c>
       <c r="C110" t="n">
         <v>8</v>
@@ -3136,7 +2698,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>0.948928186115802</v>
+        <v>0.875367296960571</v>
       </c>
       <c r="C111" t="n">
         <v>8</v>
@@ -3147,7 +2709,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>0.999939668281928</v>
+        <v>0.817605931161936</v>
       </c>
       <c r="C112" t="n">
         <v>8</v>
@@ -3158,7 +2720,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>0.999999997636615</v>
+        <v>0.956042256806298</v>
       </c>
       <c r="C113" t="n">
         <v>8</v>
@@ -3169,7 +2731,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>0.681214494613412</v>
+        <v>0.955572052503707</v>
       </c>
       <c r="C114" t="n">
         <v>8</v>
@@ -3180,7 +2742,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>0.998745995625168</v>
+        <v>0.933458366088214</v>
       </c>
       <c r="C115" t="n">
         <v>8</v>
@@ -3191,7 +2753,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>0.998501693925942</v>
+        <v>0.984590267324485</v>
       </c>
       <c r="C116" t="n">
         <v>8</v>
@@ -3202,7 +2764,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0.999565910766726</v>
       </c>
       <c r="C117" t="n">
         <v>8</v>
@@ -3213,7 +2775,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>0.999998008738365</v>
+        <v>0.934960993846159</v>
       </c>
       <c r="C118" t="n">
         <v>8</v>
@@ -3224,7 +2786,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>0.999999899496894</v>
+        <v>0.990839698662449</v>
       </c>
       <c r="C119" t="n">
         <v>8</v>
@@ -3235,7 +2797,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>0.999988570367461</v>
+        <v>0.960498501747297</v>
       </c>
       <c r="C120" t="n">
         <v>8</v>
@@ -3246,7 +2808,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>0.999981447737274</v>
+        <v>0.880342817017032</v>
       </c>
       <c r="C121" t="n">
         <v>8</v>
@@ -3257,7 +2819,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>0.999999989867737</v>
+        <v>0.812225488244273</v>
       </c>
       <c r="C122" t="n">
         <v>8</v>
@@ -3268,7 +2830,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>0.997847344243993</v>
+        <v>0.987854003009159</v>
       </c>
       <c r="C123" t="n">
         <v>8</v>
@@ -3279,7 +2841,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>0.99998108038851</v>
+        <v>0.851011132657828</v>
       </c>
       <c r="C124" t="n">
         <v>8</v>
@@ -3290,7 +2852,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>0.911269276355823</v>
+        <v>0.820819978346953</v>
       </c>
       <c r="C125" t="n">
         <v>8</v>
@@ -3301,7 +2863,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>0.999999973231145</v>
+        <v>0.998621606582031</v>
       </c>
       <c r="C126" t="n">
         <v>8</v>
@@ -3312,7 +2874,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0.974731965256632</v>
       </c>
       <c r="C127" t="n">
         <v>8</v>
@@ -3323,7 +2885,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>0.999484281405495</v>
+        <v>0.823656803122296</v>
       </c>
       <c r="C128" t="n">
         <v>8</v>
@@ -3334,7 +2896,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>0.991739213588457</v>
+        <v>0.998205487267823</v>
       </c>
       <c r="C129" t="n">
         <v>8</v>
@@ -3345,7 +2907,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>0.999999999999824</v>
+        <v>0.92310663311567</v>
       </c>
       <c r="C130" t="n">
         <v>8</v>
@@ -3356,7 +2918,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>0.552439684744998</v>
+        <v>0.998684404295197</v>
       </c>
       <c r="C131" t="n">
         <v>8</v>
@@ -3367,7 +2929,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>0.999999997332745</v>
+        <v>0.999858441765172</v>
       </c>
       <c r="C132" t="n">
         <v>8</v>
@@ -3378,7 +2940,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>0.977440033471313</v>
+        <v>0.957764999365263</v>
       </c>
       <c r="C133" t="n">
         <v>8</v>
@@ -3389,7 +2951,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>0.999993636280833</v>
+        <v>0.987401426429837</v>
       </c>
       <c r="C134" t="n">
         <v>8</v>
@@ -3400,7 +2962,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>0.993148012736597</v>
+        <v>0.848945664926213</v>
       </c>
       <c r="C135" t="n">
         <v>8</v>
@@ -3411,7 +2973,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>0.999999877003406</v>
+        <v>0.802220452171702</v>
       </c>
       <c r="C136" t="n">
         <v>8</v>
@@ -3422,7 +2984,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>0.999999956185722</v>
+        <v>0.998266644530617</v>
       </c>
       <c r="C137" t="n">
         <v>8</v>
@@ -3433,7 +2995,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>0.999999999980365</v>
+        <v>0.920062140343337</v>
       </c>
       <c r="C138" t="n">
         <v>8</v>
@@ -3444,7 +3006,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>0.999980920306601</v>
+        <v>0.981677213777505</v>
       </c>
       <c r="C139" t="n">
         <v>8</v>
@@ -3455,7 +3017,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>0.999999999958308</v>
+        <v>0.989607609072499</v>
       </c>
       <c r="C140" t="n">
         <v>8</v>
@@ -3466,7 +3028,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>0.999998023226475</v>
+        <v>0.988520108020224</v>
       </c>
       <c r="C141" t="n">
         <v>8</v>
@@ -3477,7 +3039,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>0.997350550003824</v>
+        <v>0.980469272820823</v>
       </c>
       <c r="C142" t="n">
         <v>8</v>
@@ -3488,7 +3050,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>0.894079132871263</v>
+        <v>0.879790939646386</v>
       </c>
       <c r="C143" t="n">
         <v>8</v>
@@ -3499,7 +3061,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>0.999906108221441</v>
+        <v>0.983932710847979</v>
       </c>
       <c r="C144" t="n">
         <v>8</v>
@@ -3510,7 +3072,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>0.999998527555914</v>
+        <v>0.99252291030965</v>
       </c>
       <c r="C145" t="n">
         <v>8</v>
@@ -3521,7 +3083,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>0.902574439381807</v>
+        <v>0.989797813662473</v>
       </c>
       <c r="C146" t="n">
         <v>8</v>
@@ -3532,7 +3094,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0.842026036690998</v>
       </c>
       <c r="C147" t="n">
         <v>8</v>
@@ -3543,7 +3105,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>0.99999311790174</v>
+        <v>0.998434151984103</v>
       </c>
       <c r="C148" t="n">
         <v>8</v>
@@ -3554,7 +3116,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0.92313201770174</v>
       </c>
       <c r="C149" t="n">
         <v>8</v>
@@ -3565,7 +3127,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>0.999623351687937</v>
+        <v>0.990459744681232</v>
       </c>
       <c r="C150" t="n">
         <v>8</v>
@@ -3576,7 +3138,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>0.99701682780226</v>
+        <v>0.999848123672632</v>
       </c>
       <c r="C151" t="n">
         <v>8</v>
@@ -3587,7 +3149,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>0.999999999862485</v>
+        <v>0.874835759344846</v>
       </c>
       <c r="C152" t="n">
         <v>8</v>
@@ -3598,7 +3160,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0.926832738098419</v>
       </c>
       <c r="C153" t="n">
         <v>8</v>
@@ -3609,7 +3171,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="n">
-        <v>0.999993300059968</v>
+        <v>0.838127912122704</v>
       </c>
       <c r="C154" t="n">
         <v>8</v>
@@ -3620,7 +3182,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>0.995140587855087</v>
+        <v>0.997966693312473</v>
       </c>
       <c r="C155" t="n">
         <v>8</v>
@@ -3631,7 +3193,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>0.999999166278962</v>
+        <v>0.997473871154274</v>
       </c>
       <c r="C156" t="n">
         <v>8</v>
@@ -3642,7 +3204,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>0.999999999920903</v>
+        <v>0.993614471557391</v>
       </c>
       <c r="C157" t="n">
         <v>8</v>
@@ -3653,7 +3215,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0.961045612607415</v>
       </c>
       <c r="C158" t="n">
         <v>8</v>
@@ -3664,7 +3226,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9999999999994</v>
+        <v>0.972075339232299</v>
       </c>
       <c r="C159" t="n">
         <v>8</v>
@@ -3675,7 +3237,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>0.855118179738765</v>
+        <v>0.913505963859582</v>
       </c>
       <c r="C160" t="n">
         <v>8</v>
@@ -3686,7 +3248,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>0.999683980909616</v>
+        <v>0.999619637487562</v>
       </c>
       <c r="C161" t="n">
         <v>8</v>
@@ -3697,7 +3259,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>0.999999980033381</v>
+        <v>0.999065601866079</v>
       </c>
       <c r="C162" t="n">
         <v>8</v>
@@ -3708,7 +3270,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>0.771208491254158</v>
+        <v>0.973820261852291</v>
       </c>
       <c r="C163" t="n">
         <v>8</v>
@@ -3719,7 +3281,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.57386220459124</v>
+        <v>0.98887567628726</v>
       </c>
       <c r="C164" t="n">
         <v>8</v>
@@ -3730,7 +3292,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0.877199577938371</v>
       </c>
       <c r="C165" t="n">
         <v>8</v>
@@ -3741,7 +3303,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>0.999999999993802</v>
+        <v>0.891559004345522</v>
       </c>
       <c r="C166" t="n">
         <v>8</v>
@@ -3752,7 +3314,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>0.664371492006879</v>
+        <v>0.828655391744796</v>
       </c>
       <c r="C167" t="n">
         <v>8</v>
@@ -3763,7 +3325,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>0.996940676430776</v>
+        <v>0.82048325309469</v>
       </c>
       <c r="C168" t="n">
         <v>8</v>
@@ -3774,7 +3336,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>0.999999975292052</v>
+        <v>0.998227391052717</v>
       </c>
       <c r="C169" t="n">
         <v>8</v>
@@ -3785,7 +3347,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>0.999999999999995</v>
+        <v>0.816159964809984</v>
       </c>
       <c r="C170" t="n">
         <v>8</v>
@@ -3796,7 +3358,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>0.889191222039931</v>
+        <v>0.924610868204893</v>
       </c>
       <c r="C171" t="n">
         <v>8</v>
@@ -3807,7 +3369,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>0.999878459311802</v>
+        <v>0.818500489777495</v>
       </c>
       <c r="C172" t="n">
         <v>8</v>
@@ -3818,7 +3380,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>0.99773148476901</v>
+        <v>0.925008971510804</v>
       </c>
       <c r="C173" t="n">
         <v>8</v>
@@ -3829,7 +3391,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0.828008396613084</v>
       </c>
       <c r="C174" t="n">
         <v>8</v>
@@ -3840,7 +3402,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>0.999999999999989</v>
+        <v>0.978390693245426</v>
       </c>
       <c r="C175" t="n">
         <v>8</v>
@@ -3851,7 +3413,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>0.999999999981905</v>
+        <v>0.871573435908155</v>
       </c>
       <c r="C176" t="n">
         <v>8</v>
@@ -3862,7 +3424,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0.981604317476075</v>
       </c>
       <c r="C177" t="n">
         <v>8</v>
@@ -3873,7 +3435,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>0.519788688477783</v>
+        <v>0.907762472629839</v>
       </c>
       <c r="C178" t="n">
         <v>8</v>
@@ -3884,7 +3446,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>0.985747622651699</v>
+        <v>0.830455954185457</v>
       </c>
       <c r="C179" t="n">
         <v>8</v>
@@ -3895,7 +3457,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>0.829543291361306</v>
+        <v>0.952615094299511</v>
       </c>
       <c r="C180" t="n">
         <v>8</v>
@@ -3906,7 +3468,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>0.976091035175127</v>
+        <v>0.983637932854964</v>
       </c>
       <c r="C181" t="n">
         <v>8</v>
@@ -3917,7 +3479,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>0.999999999993598</v>
+        <v>0.999562422313108</v>
       </c>
       <c r="C182" t="n">
         <v>8</v>
@@ -3928,7 +3490,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>0.999999999905905</v>
+        <v>0.992790258447484</v>
       </c>
       <c r="C183" t="n">
         <v>8</v>
@@ -3939,7 +3501,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>0.999566119916264</v>
+        <v>0.954329205259132</v>
       </c>
       <c r="C184" t="n">
         <v>8</v>
@@ -3950,7 +3512,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0.875407813529935</v>
       </c>
       <c r="C185" t="n">
         <v>8</v>
@@ -3961,7 +3523,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>0.51183982302226</v>
+        <v>0.876737952995648</v>
       </c>
       <c r="C186" t="n">
         <v>8</v>
@@ -3972,7 +3534,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>0.981134544852747</v>
+        <v>0.930219740395718</v>
       </c>
       <c r="C187" t="n">
         <v>8</v>
@@ -3983,7 +3545,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>0.976713123916176</v>
+        <v>0.971595033978338</v>
       </c>
       <c r="C188" t="n">
         <v>8</v>
@@ -3994,7 +3556,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0.999841210076289</v>
       </c>
       <c r="C189" t="n">
         <v>8</v>
@@ -4005,7 +3567,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0.999753947561142</v>
       </c>
       <c r="C190" t="n">
         <v>8</v>
@@ -4016,7 +3578,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>0.954834226657294</v>
+        <v>0.998742927005039</v>
       </c>
       <c r="C191" t="n">
         <v>8</v>
@@ -4027,7 +3589,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>0.999999999968397</v>
+        <v>0.993507417154908</v>
       </c>
       <c r="C192" t="n">
         <v>8</v>
@@ -4038,7 +3600,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>0.99999999898005</v>
+        <v>0.992100411835672</v>
       </c>
       <c r="C193" t="n">
         <v>8</v>
@@ -4049,7 +3611,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0.993530445078459</v>
       </c>
       <c r="C194" t="n">
         <v>8</v>
@@ -4060,7 +3622,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>0.999999888978019</v>
+        <v>0.974402173838162</v>
       </c>
       <c r="C195" t="n">
         <v>8</v>
@@ -4071,7 +3633,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>0.999993812059193</v>
+        <v>0.98931851143125</v>
       </c>
       <c r="C196" t="n">
         <v>8</v>
@@ -4082,7 +3644,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>0.999999732956196</v>
+        <v>0.999935616256142</v>
       </c>
       <c r="C197" t="n">
         <v>8</v>
@@ -4093,7 +3655,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>0.999999943671833</v>
+        <v>0.972555809198166</v>
       </c>
       <c r="C198" t="n">
         <v>8</v>
@@ -4104,7 +3666,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>0.997362821390542</v>
+        <v>0.99694788351519</v>
       </c>
       <c r="C199" t="n">
         <v>8</v>
@@ -4115,7 +3677,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>0.844157935904969</v>
+        <v>0.993797698072929</v>
       </c>
       <c r="C200" t="n">
         <v>8</v>
@@ -4126,7 +3688,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>0.940198723034897</v>
+        <v>0.999871021494767</v>
       </c>
       <c r="C201" t="n">
         <v>8</v>
@@ -4137,7 +3699,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>0.999571775038763</v>
+        <v>0.822357335502547</v>
       </c>
       <c r="C202" t="n">
         <v>8</v>
@@ -4148,7 +3710,7 @@
         <v>204</v>
       </c>
       <c r="B203" t="n">
-        <v>0.999975340354774</v>
+        <v>0.975369811245539</v>
       </c>
       <c r="C203" t="n">
         <v>8</v>
@@ -4159,7 +3721,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>0.672649068838709</v>
+        <v>0.906027267859659</v>
       </c>
       <c r="C204" t="n">
         <v>8</v>
@@ -4170,7 +3732,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>0.998171362192128</v>
+        <v>0.985467002421523</v>
       </c>
       <c r="C205" t="n">
         <v>8</v>
@@ -4181,7 +3743,7 @@
         <v>207</v>
       </c>
       <c r="B206" t="n">
-        <v>0.999999997814299</v>
+        <v>0.938944553669598</v>
       </c>
       <c r="C206" t="n">
         <v>8</v>
@@ -4192,7 +3754,7 @@
         <v>208</v>
       </c>
       <c r="B207" t="n">
-        <v>0.999979987269185</v>
+        <v>0.998467070571479</v>
       </c>
       <c r="C207" t="n">
         <v>8</v>
@@ -4203,7 +3765,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>0.999975175645366</v>
+        <v>0.906745306554532</v>
       </c>
       <c r="C208" t="n">
         <v>8</v>
@@ -4214,7 +3776,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0.999990237281095</v>
       </c>
       <c r="C209" t="n">
         <v>8</v>
@@ -4225,7 +3787,7 @@
         <v>211</v>
       </c>
       <c r="B210" t="n">
-        <v>0.99984744413916</v>
+        <v>0.96422469739821</v>
       </c>
       <c r="C210" t="n">
         <v>8</v>
@@ -4236,7 +3798,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>0.999999999997565</v>
+        <v>0.999209724517224</v>
       </c>
       <c r="C211" t="n">
         <v>8</v>
@@ -4247,7 +3809,7 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>0.892566337807463</v>
+        <v>0.996653945621746</v>
       </c>
       <c r="C212" t="n">
         <v>8</v>
@@ -4258,7 +3820,7 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0.994332982738007</v>
       </c>
       <c r="C213" t="n">
         <v>8</v>
@@ -4269,7 +3831,7 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0.961937759264907</v>
       </c>
       <c r="C214" t="n">
         <v>8</v>
@@ -4280,7 +3842,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>0.999999999999999</v>
+        <v>0.904676840588571</v>
       </c>
       <c r="C215" t="n">
         <v>8</v>
@@ -4291,7 +3853,7 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>0.999999274599316</v>
+        <v>0.978667106142844</v>
       </c>
       <c r="C216" t="n">
         <v>8</v>
@@ -4302,7 +3864,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0.961749333473889</v>
       </c>
       <c r="C217" t="n">
         <v>8</v>
@@ -4313,7 +3875,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>0.985099361811381</v>
+        <v>0.994511335356203</v>
       </c>
       <c r="C218" t="n">
         <v>8</v>
@@ -4324,7 +3886,7 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>0.758803364885671</v>
+        <v>0.894161956691523</v>
       </c>
       <c r="C219" t="n">
         <v>8</v>
@@ -4335,7 +3897,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>0.999999822229832</v>
+        <v>0.931617968001726</v>
       </c>
       <c r="C220" t="n">
         <v>8</v>
@@ -4346,7 +3908,7 @@
         <v>222</v>
       </c>
       <c r="B221" t="n">
-        <v>0.999999802323029</v>
+        <v>0.999816214256386</v>
       </c>
       <c r="C221" t="n">
         <v>8</v>
@@ -4357,7 +3919,7 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>0.990267849581613</v>
+        <v>0.996835405287767</v>
       </c>
       <c r="C222" t="n">
         <v>8</v>
@@ -4368,7 +3930,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>0.999967684969317</v>
+        <v>0.997973208819226</v>
       </c>
       <c r="C223" t="n">
         <v>8</v>
@@ -4379,7 +3941,7 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>0.995660187023818</v>
+        <v>0.99421310658497</v>
       </c>
       <c r="C224" t="n">
         <v>8</v>
@@ -4390,7 +3952,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>0.999999999999262</v>
+        <v>0.996491142852402</v>
       </c>
       <c r="C225" t="n">
         <v>8</v>
@@ -4401,7 +3963,7 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>0.999998752584859</v>
+        <v>0.98229076587324</v>
       </c>
       <c r="C226" t="n">
         <v>8</v>
@@ -4412,7 +3974,7 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>0.633051284205295</v>
+        <v>0.992541307376957</v>
       </c>
       <c r="C227" t="n">
         <v>8</v>
@@ -4423,7 +3985,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>0.999999999576537</v>
+        <v>0.912077482582614</v>
       </c>
       <c r="C228" t="n">
         <v>8</v>
@@ -4434,7 +3996,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>0.999999999998963</v>
+        <v>0.999816617347561</v>
       </c>
       <c r="C229" t="n">
         <v>8</v>
@@ -4445,7 +4007,7 @@
         <v>231</v>
       </c>
       <c r="B230" t="n">
-        <v>0.999999999999701</v>
+        <v>0.922416912187487</v>
       </c>
       <c r="C230" t="n">
         <v>8</v>
@@ -4456,7 +4018,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>0.999999999999994</v>
+        <v>0.999972070381893</v>
       </c>
       <c r="C231" t="n">
         <v>8</v>
@@ -4467,7 +4029,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>0.999999948709101</v>
+        <v>0.904051968814482</v>
       </c>
       <c r="C232" t="n">
         <v>8</v>
@@ -4478,7 +4040,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>0.999999420752174</v>
+        <v>0.875505386503677</v>
       </c>
       <c r="C233" t="n">
         <v>8</v>
@@ -4489,7 +4051,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>0.999999999909739</v>
+        <v>0.811022083937106</v>
       </c>
       <c r="C234" t="n">
         <v>8</v>
@@ -4500,7 +4062,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>0.999989989763664</v>
+        <v>0.994983015026912</v>
       </c>
       <c r="C235" t="n">
         <v>8</v>
@@ -4511,7 +4073,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>0.999306702540944</v>
+        <v>0.999806518361122</v>
       </c>
       <c r="C236" t="n">
         <v>8</v>
@@ -4522,7 +4084,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0.987511473331363</v>
       </c>
       <c r="C237" t="n">
         <v>8</v>
@@ -4533,7 +4095,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>0.999999983252618</v>
+        <v>0.999917179303813</v>
       </c>
       <c r="C238" t="n">
         <v>8</v>
@@ -4544,7 +4106,7 @@
         <v>240</v>
       </c>
       <c r="B239" t="n">
-        <v>0.99998267358045</v>
+        <v>0.971475061755498</v>
       </c>
       <c r="C239" t="n">
         <v>8</v>
@@ -4555,7 +4117,7 @@
         <v>241</v>
       </c>
       <c r="B240" t="n">
-        <v>0.999999909346402</v>
+        <v>0.822438331199499</v>
       </c>
       <c r="C240" t="n">
         <v>8</v>
@@ -4566,7 +4128,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>0.608683615200677</v>
+        <v>0.99826177226415</v>
       </c>
       <c r="C241" t="n">
         <v>8</v>
@@ -4577,7 +4139,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>0.999999870252331</v>
+        <v>0.936966846733337</v>
       </c>
       <c r="C242" t="n">
         <v>8</v>
@@ -4588,7 +4150,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>0.999176981326143</v>
+        <v>0.963854030803947</v>
       </c>
       <c r="C243" t="n">
         <v>8</v>
@@ -4599,7 +4161,7 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>0.999979005095488</v>
+        <v>0.917333119193913</v>
       </c>
       <c r="C244" t="n">
         <v>8</v>
@@ -4610,7 +4172,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>0.99999999999847</v>
+        <v>0.987101140120957</v>
       </c>
       <c r="C245" t="n">
         <v>8</v>
@@ -4621,7 +4183,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>0.999285353822102</v>
+        <v>0.912141627759477</v>
       </c>
       <c r="C246" t="n">
         <v>8</v>
@@ -4632,7 +4194,7 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>0.999937739693267</v>
+        <v>0.811838121646233</v>
       </c>
       <c r="C247" t="n">
         <v>8</v>
@@ -4643,7 +4205,7 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>0.99989460021719</v>
+        <v>0.950665317431866</v>
       </c>
       <c r="C248" t="n">
         <v>8</v>
@@ -4654,7 +4216,7 @@
         <v>250</v>
       </c>
       <c r="B249" t="n">
-        <v>0.999650973051537</v>
+        <v>0.98789024915696</v>
       </c>
       <c r="C249" t="n">
         <v>8</v>
@@ -4665,7 +4227,7 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0.98668872786307</v>
       </c>
       <c r="C250" t="n">
         <v>8</v>
@@ -4676,7 +4238,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0.828859588845076</v>
       </c>
       <c r="C251" t="n">
         <v>8</v>
@@ -4687,7 +4249,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>0.990146676317601</v>
+        <v>0.962530232013216</v>
       </c>
       <c r="C252" t="n">
         <v>8</v>
@@ -4698,7 +4260,7 @@
         <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>0.990230081897524</v>
+        <v>0.959925716261155</v>
       </c>
       <c r="C253" t="n">
         <v>8</v>
@@ -4709,7 +4271,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0.961942645481733</v>
       </c>
       <c r="C254" t="n">
         <v>8</v>
@@ -4720,7 +4282,7 @@
         <v>256</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0.974679980102712</v>
       </c>
       <c r="C255" t="n">
         <v>8</v>
@@ -4731,7 +4293,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0.939520916632565</v>
       </c>
       <c r="C256" t="n">
         <v>8</v>
@@ -4742,7 +4304,7 @@
         <v>258</v>
       </c>
       <c r="B257" t="n">
-        <v>0.999976606095784</v>
+        <v>0.999429013240097</v>
       </c>
       <c r="C257" t="n">
         <v>8</v>
@@ -4753,7 +4315,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>0.974057472596386</v>
+        <v>0.80971951880525</v>
       </c>
       <c r="C258" t="n">
         <v>8</v>
@@ -4764,7 +4326,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>0.996245435271909</v>
+        <v>0.99852463799527</v>
       </c>
       <c r="C259" t="n">
         <v>8</v>
@@ -4775,7 +4337,7 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>0.999999943008373</v>
+        <v>0.854902692069958</v>
       </c>
       <c r="C260" t="n">
         <v>8</v>
@@ -4786,7 +4348,7 @@
         <v>262</v>
       </c>
       <c r="B261" t="n">
-        <v>0.999999999916381</v>
+        <v>0.964419235031199</v>
       </c>
       <c r="C261" t="n">
         <v>8</v>
@@ -4797,7 +4359,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>0.753035204998319</v>
+        <v>0.94181118929649</v>
       </c>
       <c r="C262" t="n">
         <v>8</v>
@@ -4808,7 +4370,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>0.999999999996504</v>
+        <v>0.999824677615432</v>
       </c>
       <c r="C263" t="n">
         <v>8</v>
@@ -4819,7 +4381,7 @@
         <v>265</v>
       </c>
       <c r="B264" t="n">
-        <v>0.999999999997921</v>
+        <v>0.999207483140158</v>
       </c>
       <c r="C264" t="n">
         <v>8</v>
@@ -4830,7 +4392,7 @@
         <v>266</v>
       </c>
       <c r="B265" t="n">
-        <v>0.999999999779812</v>
+        <v>0.945585789140641</v>
       </c>
       <c r="C265" t="n">
         <v>8</v>
@@ -4841,7 +4403,7 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>0.999999999999265</v>
+        <v>0.957254762635846</v>
       </c>
       <c r="C266" t="n">
         <v>8</v>
@@ -4852,7 +4414,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>0.986378271033957</v>
+        <v>0.82119057480297</v>
       </c>
       <c r="C267" t="n">
         <v>8</v>
@@ -4863,7 +4425,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>0.99965915055373</v>
+        <v>0.969825192010575</v>
       </c>
       <c r="C268" t="n">
         <v>8</v>
@@ -4874,7 +4436,7 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>0.986746757716138</v>
+        <v>0.943771393620243</v>
       </c>
       <c r="C269" t="n">
         <v>8</v>
@@ -4885,7 +4447,7 @@
         <v>271</v>
       </c>
       <c r="B270" t="n">
-        <v>0.726638650893113</v>
+        <v>0.980478017520298</v>
       </c>
       <c r="C270" t="n">
         <v>8</v>
@@ -4896,7 +4458,7 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>0.814742895747415</v>
+        <v>0.863806100805311</v>
       </c>
       <c r="C271" t="n">
         <v>8</v>
@@ -4907,7 +4469,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>0.999999999999977</v>
+        <v>0.852797293995751</v>
       </c>
       <c r="C272" t="n">
         <v>8</v>
@@ -4918,7 +4480,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>0.999999999999998</v>
+        <v>0.857311736113561</v>
       </c>
       <c r="C273" t="n">
         <v>8</v>
@@ -4929,7 +4491,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>0.999999989573719</v>
+        <v>0.999640563040715</v>
       </c>
       <c r="C274" t="n">
         <v>8</v>
@@ -4940,7 +4502,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>0.99999996940417</v>
+        <v>0.999959778939365</v>
       </c>
       <c r="C275" t="n">
         <v>8</v>
@@ -4951,7 +4513,7 @@
         <v>277</v>
       </c>
       <c r="B276" t="n">
-        <v>0.999999999861722</v>
+        <v>0.998928735264371</v>
       </c>
       <c r="C276" t="n">
         <v>8</v>
@@ -4962,7 +4524,7 @@
         <v>278</v>
       </c>
       <c r="B277" t="n">
-        <v>0.999999986753567</v>
+        <v>0.965739509537296</v>
       </c>
       <c r="C277" t="n">
         <v>8</v>
@@ -4973,7 +4535,7 @@
         <v>279</v>
       </c>
       <c r="B278" t="n">
-        <v>0.727867546354963</v>
+        <v>0.87358516468426</v>
       </c>
       <c r="C278" t="n">
         <v>8</v>
@@ -4984,7 +4546,7 @@
         <v>280</v>
       </c>
       <c r="B279" t="n">
-        <v>0.975372606838583</v>
+        <v>0.983180404581817</v>
       </c>
       <c r="C279" t="n">
         <v>8</v>
@@ -4995,7 +4557,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>0.999999999999992</v>
+        <v>0.95612006832251</v>
       </c>
       <c r="C280" t="n">
         <v>8</v>
@@ -5006,7 +4568,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>0.999970284064767</v>
+        <v>0.928725983329666</v>
       </c>
       <c r="C281" t="n">
         <v>8</v>
@@ -5017,7 +4579,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>0.987898090958127</v>
+        <v>0.99930723346335</v>
       </c>
       <c r="C282" t="n">
         <v>8</v>
@@ -5028,7 +4590,7 @@
         <v>284</v>
       </c>
       <c r="B283" t="n">
-        <v>0.999999999767046</v>
+        <v>0.85647905405982</v>
       </c>
       <c r="C283" t="n">
         <v>8</v>
@@ -5039,7 +4601,7 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>0.999999892884678</v>
+        <v>0.940660127975233</v>
       </c>
       <c r="C284" t="n">
         <v>8</v>
@@ -5050,7 +4612,7 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>0.999999999998687</v>
+        <v>0.924290707551756</v>
       </c>
       <c r="C285" t="n">
         <v>8</v>
@@ -5061,7 +4623,7 @@
         <v>287</v>
       </c>
       <c r="B286" t="n">
-        <v>0.981979770531318</v>
+        <v>0.996252806385298</v>
       </c>
       <c r="C286" t="n">
         <v>8</v>
@@ -5072,7 +4634,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>0.999999999980172</v>
+        <v>0.92148591221034</v>
       </c>
       <c r="C287" t="n">
         <v>8</v>
@@ -5083,7 +4645,7 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>0.99999999956817</v>
+        <v>0.823854627846516</v>
       </c>
       <c r="C288" t="n">
         <v>8</v>
@@ -5094,7 +4656,7 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>0.999999999999998</v>
+        <v>0.874668053550098</v>
       </c>
       <c r="C289" t="n">
         <v>8</v>
@@ -5105,7 +4667,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>0.999991876400225</v>
+        <v>0.972524639856498</v>
       </c>
       <c r="C290" t="n">
         <v>8</v>
@@ -5116,7 +4678,7 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>0.999999870769302</v>
+        <v>0.971857800282834</v>
       </c>
       <c r="C291" t="n">
         <v>8</v>
@@ -5127,7 +4689,7 @@
         <v>293</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0.998442569152114</v>
       </c>
       <c r="C292" t="n">
         <v>8</v>
@@ -5138,7 +4700,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="n">
-        <v>0.999247616950086</v>
+        <v>0.961616232384036</v>
       </c>
       <c r="C293" t="n">
         <v>8</v>
@@ -5149,7 +4711,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>0.999999998902196</v>
+        <v>0.990581971521866</v>
       </c>
       <c r="C294" t="n">
         <v>8</v>
@@ -5160,7 +4722,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>0.999999971243709</v>
+        <v>0.889522873132761</v>
       </c>
       <c r="C295" t="n">
         <v>8</v>
@@ -5171,7 +4733,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>0.999913727332689</v>
+        <v>0.999252071446667</v>
       </c>
       <c r="C296" t="n">
         <v>8</v>
@@ -5182,7 +4744,7 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>0.999999800904091</v>
+        <v>0.971006492292213</v>
       </c>
       <c r="C297" t="n">
         <v>8</v>
@@ -5193,7 +4755,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>0.999994998378656</v>
+        <v>0.881654356831128</v>
       </c>
       <c r="C298" t="n">
         <v>8</v>
@@ -5204,7 +4766,7 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>0.996262333243875</v>
+        <v>0.999874278011854</v>
       </c>
       <c r="C299" t="n">
         <v>8</v>
@@ -5215,7 +4777,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>0.981428037440732</v>
+        <v>0.83507831305262</v>
       </c>
       <c r="C300" t="n">
         <v>8</v>
@@ -5226,7 +4788,7 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>0.999977014511399</v>
+        <v>0.997842817692525</v>
       </c>
       <c r="C301" t="n">
         <v>8</v>
@@ -5237,7 +4799,7 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>0.99999890987402</v>
+        <v>0.949603319578648</v>
       </c>
       <c r="C302" t="n">
         <v>8</v>
@@ -5248,7 +4810,7 @@
         <v>304</v>
       </c>
       <c r="B303" t="n">
-        <v>0.999986361775033</v>
+        <v>0.841486833498905</v>
       </c>
       <c r="C303" t="n">
         <v>8</v>
@@ -5259,7 +4821,7 @@
         <v>305</v>
       </c>
       <c r="B304" t="n">
-        <v>0.999999775704251</v>
+        <v>0.999599326072583</v>
       </c>
       <c r="C304" t="n">
         <v>8</v>
@@ -5270,7 +4832,7 @@
         <v>306</v>
       </c>
       <c r="B305" t="n">
-        <v>0.991744433410868</v>
+        <v>0.999969536632997</v>
       </c>
       <c r="C305" t="n">
         <v>8</v>
@@ -5281,7 +4843,7 @@
         <v>307</v>
       </c>
       <c r="B306" t="n">
-        <v>0.746536511072528</v>
+        <v>0.996893162401588</v>
       </c>
       <c r="C306" t="n">
         <v>8</v>
@@ -5292,7 +4854,7 @@
         <v>308</v>
       </c>
       <c r="B307" t="n">
-        <v>0.999999999990508</v>
+        <v>0.872320168123479</v>
       </c>
       <c r="C307" t="n">
         <v>8</v>
@@ -5303,7 +4865,7 @@
         <v>309</v>
       </c>
       <c r="B308" t="n">
-        <v>0.928799126361012</v>
+        <v>0.956675551531669</v>
       </c>
       <c r="C308" t="n">
         <v>8</v>
@@ -5314,7 +4876,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0.994473670048587</v>
       </c>
       <c r="C309" t="n">
         <v>8</v>
@@ -5325,7 +4887,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>0.828369081964282</v>
+        <v>0.971741468470893</v>
       </c>
       <c r="C310" t="n">
         <v>8</v>
@@ -5336,7 +4898,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>0.960333361891362</v>
+        <v>0.936986945414433</v>
       </c>
       <c r="C311" t="n">
         <v>8</v>
@@ -5347,7 +4909,7 @@
         <v>313</v>
       </c>
       <c r="B312" t="n">
-        <v>0.999999999679907</v>
+        <v>0.951568284462954</v>
       </c>
       <c r="C312" t="n">
         <v>8</v>
@@ -5358,7 +4920,7 @@
         <v>314</v>
       </c>
       <c r="B313" t="n">
-        <v>0.999999999802886</v>
+        <v>0.99032076145418</v>
       </c>
       <c r="C313" t="n">
         <v>8</v>
@@ -5369,7 +4931,7 @@
         <v>315</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0.996517783578498</v>
       </c>
       <c r="C314" t="n">
         <v>8</v>
@@ -5380,7 +4942,7 @@
         <v>316</v>
       </c>
       <c r="B315" t="n">
-        <v>0.947139151058031</v>
+        <v>0.99572865486465</v>
       </c>
       <c r="C315" t="n">
         <v>8</v>
@@ -5391,7 +4953,7 @@
         <v>317</v>
       </c>
       <c r="B316" t="n">
-        <v>0.999999999483842</v>
+        <v>0.968663567481897</v>
       </c>
       <c r="C316" t="n">
         <v>8</v>
@@ -5402,7 +4964,7 @@
         <v>318</v>
       </c>
       <c r="B317" t="n">
-        <v>0.999999999933721</v>
+        <v>0.950197420552163</v>
       </c>
       <c r="C317" t="n">
         <v>8</v>
@@ -5413,7 +4975,7 @@
         <v>319</v>
       </c>
       <c r="B318" t="n">
-        <v>0.999999775989318</v>
+        <v>0.909168430346933</v>
       </c>
       <c r="C318" t="n">
         <v>8</v>
@@ -5424,7 +4986,7 @@
         <v>320</v>
       </c>
       <c r="B319" t="n">
-        <v>0.999684268351272</v>
+        <v>0.935773992047966</v>
       </c>
       <c r="C319" t="n">
         <v>8</v>
@@ -5435,7 +4997,7 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>0.997559947469258</v>
+        <v>0.9168178524476</v>
       </c>
       <c r="C320" t="n">
         <v>8</v>
@@ -5446,7 +5008,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>0.999407855963082</v>
+        <v>0.881166209756204</v>
       </c>
       <c r="C321" t="n">
         <v>8</v>
@@ -5457,7 +5019,7 @@
         <v>323</v>
       </c>
       <c r="B322" t="n">
-        <v>0.822616424738109</v>
+        <v>0.978560929929132</v>
       </c>
       <c r="C322" t="n">
         <v>8</v>
@@ -5468,7 +5030,7 @@
         <v>324</v>
       </c>
       <c r="B323" t="n">
-        <v>0.782670938345583</v>
+        <v>0.803227078956246</v>
       </c>
       <c r="C323" t="n">
         <v>8</v>
@@ -5479,7 +5041,7 @@
         <v>325</v>
       </c>
       <c r="B324" t="n">
-        <v>0.99822239454393</v>
+        <v>0.97957132618549</v>
       </c>
       <c r="C324" t="n">
         <v>8</v>
@@ -5490,7 +5052,7 @@
         <v>326</v>
       </c>
       <c r="B325" t="n">
-        <v>0.999999999606028</v>
+        <v>0.999547716623646</v>
       </c>
       <c r="C325" t="n">
         <v>8</v>
@@ -5501,7 +5063,7 @@
         <v>327</v>
       </c>
       <c r="B326" t="n">
-        <v>0.999997266594671</v>
+        <v>0.843795132275398</v>
       </c>
       <c r="C326" t="n">
         <v>8</v>
@@ -5512,7 +5074,7 @@
         <v>328</v>
       </c>
       <c r="B327" t="n">
-        <v>0.999475448899509</v>
+        <v>0.953622035894046</v>
       </c>
       <c r="C327" t="n">
         <v>8</v>
@@ -5523,7 +5085,7 @@
         <v>329</v>
       </c>
       <c r="B328" t="n">
-        <v>0.97715410211965</v>
+        <v>0.956780206139129</v>
       </c>
       <c r="C328" t="n">
         <v>8</v>
@@ -5534,7 +5096,7 @@
         <v>330</v>
       </c>
       <c r="B329" t="n">
-        <v>0.995806970560436</v>
+        <v>0.999693575796253</v>
       </c>
       <c r="C329" t="n">
         <v>8</v>
@@ -5545,7 +5107,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0.962824173454511</v>
       </c>
       <c r="C330" t="n">
         <v>8</v>
@@ -5556,7 +5118,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>0.999999992200523</v>
+        <v>0.959198218280971</v>
       </c>
       <c r="C331" t="n">
         <v>8</v>
@@ -5567,7 +5129,7 @@
         <v>333</v>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0.933282217495666</v>
       </c>
       <c r="C332" t="n">
         <v>8</v>
@@ -5578,7 +5140,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0.887650123968903</v>
       </c>
       <c r="C333" t="n">
         <v>8</v>
@@ -5589,7 +5151,7 @@
         <v>335</v>
       </c>
       <c r="B334" t="n">
-        <v>0.999999999998762</v>
+        <v>0.928395869835054</v>
       </c>
       <c r="C334" t="n">
         <v>8</v>
@@ -5600,7 +5162,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>0.999620597387128</v>
+        <v>0.999224822961086</v>
       </c>
       <c r="C335" t="n">
         <v>8</v>
@@ -5611,7 +5173,7 @@
         <v>337</v>
       </c>
       <c r="B336" t="n">
-        <v>0.999640857669165</v>
+        <v>0.997553290832082</v>
       </c>
       <c r="C336" t="n">
         <v>8</v>
@@ -5622,7 +5184,7 @@
         <v>338</v>
       </c>
       <c r="B337" t="n">
-        <v>0.999988195515416</v>
+        <v>0.997985664904009</v>
       </c>
       <c r="C337" t="n">
         <v>8</v>
@@ -5633,7 +5195,7 @@
         <v>339</v>
       </c>
       <c r="B338" t="n">
-        <v>0.999995238609452</v>
+        <v>0.971811317452682</v>
       </c>
       <c r="C338" t="n">
         <v>8</v>
@@ -5644,7 +5206,7 @@
         <v>340</v>
       </c>
       <c r="B339" t="n">
-        <v>0.999050902501242</v>
+        <v>0.912819845747684</v>
       </c>
       <c r="C339" t="n">
         <v>8</v>
@@ -5655,7 +5217,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>0.999999984823029</v>
+        <v>0.924016271292999</v>
       </c>
       <c r="C340" t="n">
         <v>8</v>
@@ -5666,7 +5228,7 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0.993596701527751</v>
       </c>
       <c r="C341" t="n">
         <v>8</v>
@@ -5677,7 +5239,7 @@
         <v>343</v>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0.943649276225231</v>
       </c>
       <c r="C342" t="n">
         <v>8</v>
@@ -5688,7 +5250,7 @@
         <v>344</v>
       </c>
       <c r="B343" t="n">
-        <v>0.999999999999666</v>
+        <v>0.993459086399357</v>
       </c>
       <c r="C343" t="n">
         <v>8</v>
@@ -5699,7 +5261,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>0.999987663738438</v>
+        <v>0.956018326220742</v>
       </c>
       <c r="C344" t="n">
         <v>8</v>
@@ -5710,7 +5272,7 @@
         <v>346</v>
       </c>
       <c r="B345" t="n">
-        <v>0.99999999596083</v>
+        <v>0.99715442093287</v>
       </c>
       <c r="C345" t="n">
         <v>8</v>
@@ -5721,7 +5283,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>0.99999999998135</v>
+        <v>0.999496164252863</v>
       </c>
       <c r="C346" t="n">
         <v>8</v>
@@ -5732,7 +5294,7 @@
         <v>348</v>
       </c>
       <c r="B347" t="n">
-        <v>0.999926090685864</v>
+        <v>0.854682208229882</v>
       </c>
       <c r="C347" t="n">
         <v>8</v>
@@ -5743,7 +5305,7 @@
         <v>349</v>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0.996351754259927</v>
       </c>
       <c r="C348" t="n">
         <v>8</v>
@@ -5754,7 +5316,7 @@
         <v>350</v>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0.955182500044588</v>
       </c>
       <c r="C349" t="n">
         <v>8</v>
@@ -5765,7 +5327,7 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>0.999999882600605</v>
+        <v>0.937578746202157</v>
       </c>
       <c r="C350" t="n">
         <v>8</v>
@@ -5776,7 +5338,7 @@
         <v>352</v>
       </c>
       <c r="B351" t="n">
-        <v>0.978199968306124</v>
+        <v>0.849181826675867</v>
       </c>
       <c r="C351" t="n">
         <v>8</v>
@@ -5787,7 +5349,7 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>0.999957131221533</v>
+        <v>0.93204989635495</v>
       </c>
       <c r="C352" t="n">
         <v>8</v>
@@ -5798,7 +5360,7 @@
         <v>354</v>
       </c>
       <c r="B353" t="n">
-        <v>0.999999999763159</v>
+        <v>0.921063687268422</v>
       </c>
       <c r="C353" t="n">
         <v>8</v>
@@ -5809,7 +5371,7 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0.994085839109727</v>
       </c>
       <c r="C354" t="n">
         <v>8</v>
@@ -5820,7 +5382,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>0.999999999704599</v>
+        <v>0.983401237953841</v>
       </c>
       <c r="C355" t="n">
         <v>8</v>
@@ -5831,7 +5393,7 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>0.999999999999953</v>
+        <v>0.982022682817505</v>
       </c>
       <c r="C356" t="n">
         <v>8</v>
@@ -5842,7 +5404,7 @@
         <v>358</v>
       </c>
       <c r="B357" t="n">
-        <v>0.999812985693776</v>
+        <v>0.98572250080196</v>
       </c>
       <c r="C357" t="n">
         <v>8</v>
@@ -5853,7 +5415,7 @@
         <v>359</v>
       </c>
       <c r="B358" t="n">
-        <v>0.942280072685572</v>
+        <v>0.992711418617046</v>
       </c>
       <c r="C358" t="n">
         <v>8</v>
@@ -5864,7 +5426,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0.932696992526618</v>
       </c>
       <c r="C359" t="n">
         <v>8</v>
@@ -5875,7 +5437,7 @@
         <v>361</v>
       </c>
       <c r="B360" t="n">
-        <v>0.999999999980793</v>
+        <v>0.99560783462881</v>
       </c>
       <c r="C360" t="n">
         <v>8</v>
@@ -5886,7 +5448,7 @@
         <v>362</v>
       </c>
       <c r="B361" t="n">
-        <v>0.999999999997982</v>
+        <v>0.998622081337817</v>
       </c>
       <c r="C361" t="n">
         <v>8</v>
@@ -5897,7 +5459,7 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>0.590756982356012</v>
+        <v>0.977321644914097</v>
       </c>
       <c r="C362" t="n">
         <v>8</v>
@@ -5908,7 +5470,7 @@
         <v>364</v>
       </c>
       <c r="B363" t="n">
-        <v>0.999999998254007</v>
+        <v>0.971987229734</v>
       </c>
       <c r="C363" t="n">
         <v>8</v>
@@ -5919,7 +5481,7 @@
         <v>365</v>
       </c>
       <c r="B364" t="n">
-        <v>0.99999999541616</v>
+        <v>0.986178904156193</v>
       </c>
       <c r="C364" t="n">
         <v>8</v>
@@ -5930,7 +5492,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>0.999999999998865</v>
+        <v>0.93992545431868</v>
       </c>
       <c r="C365" t="n">
         <v>8</v>
@@ -5941,7 +5503,7 @@
         <v>367</v>
       </c>
       <c r="B366" t="n">
-        <v>0.99999995738285</v>
+        <v>0.8132470731895</v>
       </c>
       <c r="C366" t="n">
         <v>8</v>
@@ -5952,7 +5514,7 @@
         <v>368</v>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0.801208208610956</v>
       </c>
       <c r="C367" t="n">
         <v>8</v>
@@ -5963,7 +5525,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>0.952457619519785</v>
+        <v>0.990765538310445</v>
       </c>
       <c r="C368" t="n">
         <v>8</v>
@@ -5974,7 +5536,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>0.848794669698765</v>
+        <v>0.980214736747105</v>
       </c>
       <c r="C369" t="n">
         <v>8</v>
@@ -5985,7 +5547,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>0.999999999998418</v>
+        <v>0.96456283611929</v>
       </c>
       <c r="C370" t="n">
         <v>8</v>
@@ -5996,7 +5558,7 @@
         <v>372</v>
       </c>
       <c r="B371" t="n">
-        <v>0.999999999820631</v>
+        <v>0.998107811781452</v>
       </c>
       <c r="C371" t="n">
         <v>8</v>
@@ -6007,7 +5569,7 @@
         <v>373</v>
       </c>
       <c r="B372" t="n">
-        <v>0.99999999640572</v>
+        <v>0.986976837566218</v>
       </c>
       <c r="C372" t="n">
         <v>8</v>
@@ -6018,7 +5580,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0.868340879302518</v>
       </c>
       <c r="C373" t="n">
         <v>8</v>
@@ -6029,1615 +5591,9 @@
         <v>375</v>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0.997083232936607</v>
       </c>
       <c r="C374" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>376</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.996281689099543</v>
-      </c>
-      <c r="C375" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>377</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.998929829880202</v>
-      </c>
-      <c r="C376" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="s">
-        <v>378</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.999999999994642</v>
-      </c>
-      <c r="C377" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="s">
-        <v>379</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.669248194778885</v>
-      </c>
-      <c r="C378" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s">
-        <v>380</v>
-      </c>
-      <c r="B379" t="n">
-        <v>1</v>
-      </c>
-      <c r="C379" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s">
-        <v>381</v>
-      </c>
-      <c r="B380" t="n">
-        <v>0.991344099505037</v>
-      </c>
-      <c r="C380" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>382</v>
-      </c>
-      <c r="B381" t="n">
-        <v>0.999999999999989</v>
-      </c>
-      <c r="C381" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s">
-        <v>383</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0.999999999999872</v>
-      </c>
-      <c r="C382" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
-        <v>384</v>
-      </c>
-      <c r="B383" t="n">
-        <v>0.994220719945255</v>
-      </c>
-      <c r="C383" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>385</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0.999999997913456</v>
-      </c>
-      <c r="C384" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s">
-        <v>386</v>
-      </c>
-      <c r="B385" t="n">
-        <v>1</v>
-      </c>
-      <c r="C385" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
-        <v>387</v>
-      </c>
-      <c r="B386" t="n">
-        <v>0.637249737071607</v>
-      </c>
-      <c r="C386" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>388</v>
-      </c>
-      <c r="B387" t="n">
-        <v>1</v>
-      </c>
-      <c r="C387" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>389</v>
-      </c>
-      <c r="B388" t="n">
-        <v>0.999999999998759</v>
-      </c>
-      <c r="C388" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s">
-        <v>390</v>
-      </c>
-      <c r="B389" t="n">
-        <v>0.751213906519023</v>
-      </c>
-      <c r="C389" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s">
-        <v>391</v>
-      </c>
-      <c r="B390" t="n">
-        <v>0.750451626769064</v>
-      </c>
-      <c r="C390" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
-        <v>392</v>
-      </c>
-      <c r="B391" t="n">
-        <v>0.917302156013878</v>
-      </c>
-      <c r="C391" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
-        <v>393</v>
-      </c>
-      <c r="B392" t="n">
-        <v>0.999999988646853</v>
-      </c>
-      <c r="C392" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>394</v>
-      </c>
-      <c r="B393" t="n">
-        <v>0.999997573966271</v>
-      </c>
-      <c r="C393" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>395</v>
-      </c>
-      <c r="B394" t="n">
-        <v>0.976684620187852</v>
-      </c>
-      <c r="C394" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>396</v>
-      </c>
-      <c r="B395" t="n">
-        <v>1</v>
-      </c>
-      <c r="C395" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>397</v>
-      </c>
-      <c r="B396" t="n">
-        <v>0.998643691879944</v>
-      </c>
-      <c r="C396" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>398</v>
-      </c>
-      <c r="B397" t="n">
-        <v>0.999999999999886</v>
-      </c>
-      <c r="C397" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>399</v>
-      </c>
-      <c r="B398" t="n">
-        <v>0.940786333091881</v>
-      </c>
-      <c r="C398" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>400</v>
-      </c>
-      <c r="B399" t="n">
-        <v>0.999903282070586</v>
-      </c>
-      <c r="C399" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>401</v>
-      </c>
-      <c r="B400" t="n">
-        <v>1</v>
-      </c>
-      <c r="C400" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>402</v>
-      </c>
-      <c r="B401" t="n">
-        <v>0.999956492591603</v>
-      </c>
-      <c r="C401" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>403</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0.999999999999872</v>
-      </c>
-      <c r="C402" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>404</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1</v>
-      </c>
-      <c r="C403" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>405</v>
-      </c>
-      <c r="B404" t="n">
-        <v>0.9719086859097</v>
-      </c>
-      <c r="C404" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>406</v>
-      </c>
-      <c r="B405" t="n">
-        <v>1</v>
-      </c>
-      <c r="C405" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>407</v>
-      </c>
-      <c r="B406" t="n">
-        <v>0.997028106528549</v>
-      </c>
-      <c r="C406" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>408</v>
-      </c>
-      <c r="B407" t="n">
-        <v>0.999986241875925</v>
-      </c>
-      <c r="C407" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>409</v>
-      </c>
-      <c r="B408" t="n">
-        <v>0.985968464888255</v>
-      </c>
-      <c r="C408" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>410</v>
-      </c>
-      <c r="B409" t="n">
-        <v>0.961889313157982</v>
-      </c>
-      <c r="C409" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>411</v>
-      </c>
-      <c r="B410" t="n">
-        <v>0.999999999599216</v>
-      </c>
-      <c r="C410" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>412</v>
-      </c>
-      <c r="B411" t="n">
-        <v>0.999999488369827</v>
-      </c>
-      <c r="C411" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>413</v>
-      </c>
-      <c r="B412" t="n">
-        <v>0.807724878709942</v>
-      </c>
-      <c r="C412" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>414</v>
-      </c>
-      <c r="B413" t="n">
-        <v>0.782065300209091</v>
-      </c>
-      <c r="C413" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>415</v>
-      </c>
-      <c r="B414" t="n">
-        <v>0.999978116706365</v>
-      </c>
-      <c r="C414" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>416</v>
-      </c>
-      <c r="B415" t="n">
-        <v>1</v>
-      </c>
-      <c r="C415" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>417</v>
-      </c>
-      <c r="B416" t="n">
-        <v>0.999636536617445</v>
-      </c>
-      <c r="C416" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>418</v>
-      </c>
-      <c r="B417" t="n">
-        <v>1</v>
-      </c>
-      <c r="C417" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>419</v>
-      </c>
-      <c r="B418" t="n">
-        <v>0.9999957021896</v>
-      </c>
-      <c r="C418" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>420</v>
-      </c>
-      <c r="B419" t="n">
-        <v>0.999993854385553</v>
-      </c>
-      <c r="C419" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>421</v>
-      </c>
-      <c r="B420" t="n">
-        <v>0.999999699198278</v>
-      </c>
-      <c r="C420" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>422</v>
-      </c>
-      <c r="B421" t="n">
-        <v>0.999999999999945</v>
-      </c>
-      <c r="C421" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>423</v>
-      </c>
-      <c r="B422" t="n">
-        <v>0.937301816865483</v>
-      </c>
-      <c r="C422" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>424</v>
-      </c>
-      <c r="B423" t="n">
-        <v>0.99999999995591</v>
-      </c>
-      <c r="C423" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s">
-        <v>425</v>
-      </c>
-      <c r="B424" t="n">
-        <v>0.999999999999184</v>
-      </c>
-      <c r="C424" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s">
-        <v>426</v>
-      </c>
-      <c r="B425" t="n">
-        <v>0.999999999999627</v>
-      </c>
-      <c r="C425" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s">
-        <v>427</v>
-      </c>
-      <c r="B426" t="n">
-        <v>0.759428568259022</v>
-      </c>
-      <c r="C426" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s">
-        <v>428</v>
-      </c>
-      <c r="B427" t="n">
-        <v>0.939689209805474</v>
-      </c>
-      <c r="C427" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s">
-        <v>429</v>
-      </c>
-      <c r="B428" t="n">
-        <v>1</v>
-      </c>
-      <c r="C428" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s">
-        <v>430</v>
-      </c>
-      <c r="B429" t="n">
-        <v>0.904003503520102</v>
-      </c>
-      <c r="C429" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s">
-        <v>431</v>
-      </c>
-      <c r="B430" t="n">
-        <v>0.999999999809294</v>
-      </c>
-      <c r="C430" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s">
-        <v>432</v>
-      </c>
-      <c r="B431" t="n">
-        <v>0.999999999998444</v>
-      </c>
-      <c r="C431" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s">
-        <v>433</v>
-      </c>
-      <c r="B432" t="n">
-        <v>0.999999999322596</v>
-      </c>
-      <c r="C432" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s">
-        <v>434</v>
-      </c>
-      <c r="B433" t="n">
-        <v>0.811325320647286</v>
-      </c>
-      <c r="C433" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s">
-        <v>435</v>
-      </c>
-      <c r="B434" t="n">
-        <v>0.999466981475237</v>
-      </c>
-      <c r="C434" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s">
-        <v>436</v>
-      </c>
-      <c r="B435" t="n">
-        <v>0.997648656012005</v>
-      </c>
-      <c r="C435" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="s">
-        <v>437</v>
-      </c>
-      <c r="B436" t="n">
-        <v>0.775912687048242</v>
-      </c>
-      <c r="C436" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="s">
-        <v>438</v>
-      </c>
-      <c r="B437" t="n">
-        <v>0.999977325225717</v>
-      </c>
-      <c r="C437" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="s">
-        <v>439</v>
-      </c>
-      <c r="B438" t="n">
-        <v>1</v>
-      </c>
-      <c r="C438" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="s">
-        <v>440</v>
-      </c>
-      <c r="B439" t="n">
-        <v>0.999891089375464</v>
-      </c>
-      <c r="C439" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="s">
-        <v>441</v>
-      </c>
-      <c r="B440" t="n">
-        <v>0.999999972912075</v>
-      </c>
-      <c r="C440" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="s">
-        <v>442</v>
-      </c>
-      <c r="B441" t="n">
-        <v>0.995702049425762</v>
-      </c>
-      <c r="C441" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s">
-        <v>443</v>
-      </c>
-      <c r="B442" t="n">
-        <v>0.991880022056417</v>
-      </c>
-      <c r="C442" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="s">
-        <v>444</v>
-      </c>
-      <c r="B443" t="n">
-        <v>0.999964927570051</v>
-      </c>
-      <c r="C443" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="s">
-        <v>445</v>
-      </c>
-      <c r="B444" t="n">
-        <v>0.999999999995399</v>
-      </c>
-      <c r="C444" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="s">
-        <v>446</v>
-      </c>
-      <c r="B445" t="n">
-        <v>0.941784279746427</v>
-      </c>
-      <c r="C445" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="s">
-        <v>447</v>
-      </c>
-      <c r="B446" t="n">
-        <v>0.944165457846066</v>
-      </c>
-      <c r="C446" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="s">
-        <v>448</v>
-      </c>
-      <c r="B447" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="C447" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="s">
-        <v>449</v>
-      </c>
-      <c r="B448" t="n">
-        <v>0.999999999994243</v>
-      </c>
-      <c r="C448" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="s">
-        <v>450</v>
-      </c>
-      <c r="B449" t="n">
-        <v>0.999995779272657</v>
-      </c>
-      <c r="C449" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>451</v>
-      </c>
-      <c r="B450" t="n">
-        <v>0.999999237421736</v>
-      </c>
-      <c r="C450" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s">
-        <v>452</v>
-      </c>
-      <c r="B451" t="n">
-        <v>0.999809646878474</v>
-      </c>
-      <c r="C451" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s">
-        <v>453</v>
-      </c>
-      <c r="B452" t="n">
-        <v>0.988208552173433</v>
-      </c>
-      <c r="C452" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="s">
-        <v>454</v>
-      </c>
-      <c r="B453" t="n">
-        <v>0.999999997369421</v>
-      </c>
-      <c r="C453" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="s">
-        <v>455</v>
-      </c>
-      <c r="B454" t="n">
-        <v>0.999998399204058</v>
-      </c>
-      <c r="C454" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="s">
-        <v>456</v>
-      </c>
-      <c r="B455" t="n">
-        <v>0.97654396573001</v>
-      </c>
-      <c r="C455" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="s">
-        <v>457</v>
-      </c>
-      <c r="B456" t="n">
-        <v>0.584452617413422</v>
-      </c>
-      <c r="C456" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="s">
-        <v>458</v>
-      </c>
-      <c r="B457" t="n">
-        <v>0.999999999999675</v>
-      </c>
-      <c r="C457" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="s">
-        <v>459</v>
-      </c>
-      <c r="B458" t="n">
-        <v>0.993874537289656</v>
-      </c>
-      <c r="C458" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="s">
-        <v>460</v>
-      </c>
-      <c r="B459" t="n">
-        <v>0.999839704190344</v>
-      </c>
-      <c r="C459" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="s">
-        <v>461</v>
-      </c>
-      <c r="B460" t="n">
-        <v>0.999999070577696</v>
-      </c>
-      <c r="C460" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="s">
-        <v>462</v>
-      </c>
-      <c r="B461" t="n">
-        <v>1</v>
-      </c>
-      <c r="C461" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="s">
-        <v>463</v>
-      </c>
-      <c r="B462" t="n">
-        <v>0.999999999999972</v>
-      </c>
-      <c r="C462" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="s">
-        <v>464</v>
-      </c>
-      <c r="B463" t="n">
-        <v>0.99999997332134</v>
-      </c>
-      <c r="C463" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="s">
-        <v>465</v>
-      </c>
-      <c r="B464" t="n">
-        <v>0.999999054681376</v>
-      </c>
-      <c r="C464" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="s">
-        <v>466</v>
-      </c>
-      <c r="B465" t="n">
-        <v>0.999999751844155</v>
-      </c>
-      <c r="C465" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="s">
-        <v>467</v>
-      </c>
-      <c r="B466" t="n">
-        <v>0.853603716531695</v>
-      </c>
-      <c r="C466" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="s">
-        <v>468</v>
-      </c>
-      <c r="B467" t="n">
-        <v>1</v>
-      </c>
-      <c r="C467" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="s">
-        <v>469</v>
-      </c>
-      <c r="B468" t="n">
-        <v>1</v>
-      </c>
-      <c r="C468" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="s">
-        <v>470</v>
-      </c>
-      <c r="B469" t="n">
-        <v>0.999980594474688</v>
-      </c>
-      <c r="C469" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="s">
-        <v>471</v>
-      </c>
-      <c r="B470" t="n">
-        <v>0.999975533542436</v>
-      </c>
-      <c r="C470" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="s">
-        <v>472</v>
-      </c>
-      <c r="B471" t="n">
-        <v>0.999962371612381</v>
-      </c>
-      <c r="C471" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="s">
-        <v>473</v>
-      </c>
-      <c r="B472" t="n">
-        <v>0.999999036257203</v>
-      </c>
-      <c r="C472" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="s">
-        <v>474</v>
-      </c>
-      <c r="B473" t="n">
-        <v>0.948213951380777</v>
-      </c>
-      <c r="C473" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="s">
-        <v>475</v>
-      </c>
-      <c r="B474" t="n">
-        <v>1</v>
-      </c>
-      <c r="C474" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="s">
-        <v>476</v>
-      </c>
-      <c r="B475" t="n">
-        <v>0.999999994373976</v>
-      </c>
-      <c r="C475" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="s">
-        <v>477</v>
-      </c>
-      <c r="B476" t="n">
-        <v>0.964001919663404</v>
-      </c>
-      <c r="C476" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="s">
-        <v>478</v>
-      </c>
-      <c r="B477" t="n">
-        <v>0.999999998801618</v>
-      </c>
-      <c r="C477" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="s">
-        <v>479</v>
-      </c>
-      <c r="B478" t="n">
-        <v>0.99998219474813</v>
-      </c>
-      <c r="C478" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="s">
-        <v>480</v>
-      </c>
-      <c r="B479" t="n">
-        <v>0.999999996388701</v>
-      </c>
-      <c r="C479" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="s">
-        <v>481</v>
-      </c>
-      <c r="B480" t="n">
-        <v>0.999999999979655</v>
-      </c>
-      <c r="C480" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="s">
-        <v>482</v>
-      </c>
-      <c r="B481" t="n">
-        <v>0.99575410082772</v>
-      </c>
-      <c r="C481" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="s">
-        <v>483</v>
-      </c>
-      <c r="B482" t="n">
-        <v>0.999999999999905</v>
-      </c>
-      <c r="C482" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="s">
-        <v>484</v>
-      </c>
-      <c r="B483" t="n">
-        <v>0.626138426664096</v>
-      </c>
-      <c r="C483" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="s">
-        <v>485</v>
-      </c>
-      <c r="B484" t="n">
-        <v>0.999999994172798</v>
-      </c>
-      <c r="C484" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="s">
-        <v>486</v>
-      </c>
-      <c r="B485" t="n">
-        <v>0.980149303460627</v>
-      </c>
-      <c r="C485" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="s">
-        <v>487</v>
-      </c>
-      <c r="B486" t="n">
-        <v>1</v>
-      </c>
-      <c r="C486" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="s">
-        <v>488</v>
-      </c>
-      <c r="B487" t="n">
-        <v>0.549078802362504</v>
-      </c>
-      <c r="C487" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="s">
-        <v>489</v>
-      </c>
-      <c r="B488" t="n">
-        <v>0.995523900098269</v>
-      </c>
-      <c r="C488" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="s">
-        <v>490</v>
-      </c>
-      <c r="B489" t="n">
-        <v>0.89683487623152</v>
-      </c>
-      <c r="C489" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="s">
-        <v>491</v>
-      </c>
-      <c r="B490" t="n">
-        <v>1</v>
-      </c>
-      <c r="C490" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="s">
-        <v>492</v>
-      </c>
-      <c r="B491" t="n">
-        <v>0.999999999999977</v>
-      </c>
-      <c r="C491" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="s">
-        <v>493</v>
-      </c>
-      <c r="B492" t="n">
-        <v>0.999999999283917</v>
-      </c>
-      <c r="C492" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="s">
-        <v>494</v>
-      </c>
-      <c r="B493" t="n">
-        <v>0.999648554994782</v>
-      </c>
-      <c r="C493" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="s">
-        <v>495</v>
-      </c>
-      <c r="B494" t="n">
-        <v>0.999974210697491</v>
-      </c>
-      <c r="C494" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="s">
-        <v>496</v>
-      </c>
-      <c r="B495" t="n">
-        <v>0.999999981470828</v>
-      </c>
-      <c r="C495" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="s">
-        <v>497</v>
-      </c>
-      <c r="B496" t="n">
-        <v>0.729809281534241</v>
-      </c>
-      <c r="C496" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="s">
-        <v>498</v>
-      </c>
-      <c r="B497" t="n">
-        <v>0.562647715867255</v>
-      </c>
-      <c r="C497" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="s">
-        <v>499</v>
-      </c>
-      <c r="B498" t="n">
-        <v>0.999858058181587</v>
-      </c>
-      <c r="C498" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="s">
-        <v>500</v>
-      </c>
-      <c r="B499" t="n">
-        <v>0.99999999398818</v>
-      </c>
-      <c r="C499" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="s">
-        <v>501</v>
-      </c>
-      <c r="B500" t="n">
-        <v>0.99792146831461</v>
-      </c>
-      <c r="C500" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="s">
-        <v>502</v>
-      </c>
-      <c r="B501" t="n">
-        <v>0.999999959762472</v>
-      </c>
-      <c r="C501" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="s">
-        <v>503</v>
-      </c>
-      <c r="B502" t="n">
-        <v>0.999999977178459</v>
-      </c>
-      <c r="C502" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="s">
-        <v>504</v>
-      </c>
-      <c r="B503" t="n">
-        <v>0.828996904633595</v>
-      </c>
-      <c r="C503" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="s">
-        <v>505</v>
-      </c>
-      <c r="B504" t="n">
-        <v>0.999988704750485</v>
-      </c>
-      <c r="C504" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="s">
-        <v>506</v>
-      </c>
-      <c r="B505" t="n">
-        <v>0.991803269194967</v>
-      </c>
-      <c r="C505" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="s">
-        <v>507</v>
-      </c>
-      <c r="B506" t="n">
-        <v>0.995802993222496</v>
-      </c>
-      <c r="C506" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="s">
-        <v>508</v>
-      </c>
-      <c r="B507" t="n">
-        <v>0.999291643553446</v>
-      </c>
-      <c r="C507" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="s">
-        <v>509</v>
-      </c>
-      <c r="B508" t="n">
-        <v>0.999999925061731</v>
-      </c>
-      <c r="C508" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="s">
-        <v>510</v>
-      </c>
-      <c r="B509" t="n">
-        <v>0.999999693440231</v>
-      </c>
-      <c r="C509" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="s">
-        <v>511</v>
-      </c>
-      <c r="B510" t="n">
-        <v>0.982397081548116</v>
-      </c>
-      <c r="C510" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="s">
-        <v>512</v>
-      </c>
-      <c r="B511" t="n">
-        <v>0.999992420139568</v>
-      </c>
-      <c r="C511" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="s">
-        <v>513</v>
-      </c>
-      <c r="B512" t="n">
-        <v>1</v>
-      </c>
-      <c r="C512" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="s">
-        <v>514</v>
-      </c>
-      <c r="B513" t="n">
-        <v>0.999198386344709</v>
-      </c>
-      <c r="C513" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="s">
-        <v>515</v>
-      </c>
-      <c r="B514" t="n">
-        <v>0.99832641304538</v>
-      </c>
-      <c r="C514" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="s">
-        <v>516</v>
-      </c>
-      <c r="B515" t="n">
-        <v>0.717355738308068</v>
-      </c>
-      <c r="C515" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="s">
-        <v>517</v>
-      </c>
-      <c r="B516" t="n">
-        <v>1</v>
-      </c>
-      <c r="C516" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="s">
-        <v>518</v>
-      </c>
-      <c r="B517" t="n">
-        <v>0.999999999942517</v>
-      </c>
-      <c r="C517" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="s">
-        <v>519</v>
-      </c>
-      <c r="B518" t="n">
-        <v>0.844124897801865</v>
-      </c>
-      <c r="C518" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="s">
-        <v>520</v>
-      </c>
-      <c r="B519" t="n">
-        <v>0.999999993056495</v>
-      </c>
-      <c r="C519" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="s">
-        <v>521</v>
-      </c>
-      <c r="B520" t="n">
-        <v>0.99985931819983</v>
-      </c>
-      <c r="C520" t="n">
         <v>8</v>
       </c>
     </row>
